--- a/sources/excel/calculo.xlsx
+++ b/sources/excel/calculo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narobo\Documents\Estudo_Python\sources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA64134-3BF2-4002-A777-09498940784B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A786C29-E756-46AE-9AC4-1320F0D1BFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Coluna A</t>
+    <t>IDENTIFICADOR</t>
   </si>
   <si>
-    <t>Coluna B</t>
-  </si>
-  <si>
-    <t>Coluna C</t>
+    <t>QTD</t>
   </si>
 </sst>
 </file>
@@ -351,39 +348,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7073</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14412</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>39798</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>42109</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>53511</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>59057</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>59645</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60831</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60985</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>61857</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>62266</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>63673</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>65219</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65225</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>65234</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>67180</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>67279</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sources/excel/calculo.xlsx
+++ b/sources/excel/calculo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narobo\Documents\Estudo_Python\sources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A786C29-E756-46AE-9AC4-1320F0D1BFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273DC38E-D264-4455-B1C2-10AC290115E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,70 +440,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>61857</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>62266</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>63673</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>65219</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>65225</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>65234</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>67180</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>67279</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sources/excel/calculo.xlsx
+++ b/sources/excel/calculo.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +41,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -72,12 +78,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -385,17 +394,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="4.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="4.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2">
         <v>7073</v>
       </c>
@@ -411,7 +420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -419,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
         <v>39798</v>
       </c>
@@ -427,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2">
         <v>42109</v>
       </c>
@@ -435,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2">
         <v>53511</v>
       </c>
@@ -443,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2">
         <v>59057</v>
       </c>
@@ -451,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2">
         <v>59645</v>
       </c>
@@ -459,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2">
         <v>60831</v>
       </c>
@@ -467,11 +476,27 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="3">
+        <v>34343</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3">
+        <v>3222</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2">
         <v>60985</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
     </row>
